--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AnimData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>id</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>arrow</t>
-  </si>
-  <si>
-    <t>arrow_</t>
   </si>
 </sst>
 </file>
@@ -314,12 +311,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,58 +327,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,10 +341,79 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,14 +434,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,16 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,24 +468,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,187 +478,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,24 +675,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,6 +703,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -735,6 +728,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,28 +767,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,154 +780,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,15 +1281,15 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="24.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="23.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="24.225" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1347,1156 +1346,1156 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>19</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>19</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>19</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>28</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>29</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>35</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>16</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>33</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>34</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>62</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>63</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>69</v>
       </c>
-      <c r="G14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>6</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>10</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>6</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>10</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>10</v>
       </c>
-      <c r="G23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>4</v>
       </c>
-      <c r="G25" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>4</v>
       </c>
-      <c r="G29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>6</v>
       </c>
-      <c r="G31" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="G31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>6</v>
       </c>
-      <c r="G33" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="G33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>6</v>
       </c>
-      <c r="G35" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>2</v>
       </c>
-      <c r="G37" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>15</v>
       </c>
-      <c r="G38" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="G38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>28</v>
       </c>
-      <c r="G39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="G39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>29</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>31</v>
       </c>
-      <c r="G40" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="G40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>32</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>34</v>
       </c>
-      <c r="G41" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="G41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>2</v>
       </c>
-      <c r="G43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="G43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>3</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>4</v>
       </c>
-      <c r="G44" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="G44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>5</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>6</v>
       </c>
-      <c r="G45" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="G45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2515,7 +2514,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2532,7 +2531,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -312,9 +312,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -326,15 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +356,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -374,28 +366,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,23 +381,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +408,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,187 +484,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +675,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,38 +759,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,39 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +795,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,6 +988,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1281,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>id</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>attack</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>stuckend</t>
   </si>
   <si>
     <t>die</t>
@@ -312,8 +318,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -332,14 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -347,9 +345,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,37 +369,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,11 +382,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,6 +394,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,7 +420,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -453,21 +474,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -484,187 +490,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,15 +681,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,6 +695,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,23 +752,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,26 +781,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +801,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,24 +1283,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="23.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="24.225" customWidth="1"/>
-    <col min="5" max="5" width="11.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="24.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1485,25 +1490,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>0.1</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1511,25 +1516,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
         <v>0.1</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1537,25 +1542,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>0.1</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1563,25 +1568,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
         <v>0.1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1589,19 +1594,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>0.1</v>
@@ -1615,19 +1620,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
         <v>0.1</v>
@@ -1641,19 +1646,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2">
         <v>0.1</v>
@@ -1667,19 +1672,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2">
         <v>0.1</v>
@@ -1693,19 +1698,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2">
         <v>0.1</v>
@@ -1719,19 +1724,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>0.1</v>
@@ -1748,7 +1753,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>26</v>
@@ -1757,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2">
         <v>0.1</v>
@@ -1774,16 +1779,16 @@
         <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>0.1</v>
@@ -1797,19 +1802,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>0.1</v>
@@ -1826,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -1835,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
         <v>0.1</v>
@@ -1852,16 +1857,16 @@
         <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>0.1</v>
@@ -1875,19 +1880,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
         <v>0.1</v>
@@ -1904,7 +1909,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -1913,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
@@ -1930,16 +1935,16 @@
         <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
@@ -1953,13 +1958,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1979,13 +1984,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -2034,7 +2039,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>35</v>
@@ -2086,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
@@ -2095,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
@@ -2242,7 +2247,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>43</v>
@@ -2251,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2">
         <v>0.1</v>
@@ -2265,19 +2270,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>0.1</v>
@@ -2291,19 +2296,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2">
         <v>0.1</v>
@@ -2317,19 +2322,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F40" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2">
         <v>0.1</v>
@@ -2343,19 +2348,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
@@ -2369,19 +2374,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
@@ -2395,19 +2400,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E43" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
@@ -2421,19 +2426,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <v>0.1</v>
@@ -2447,19 +2452,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F45" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2">
         <v>0.1</v>
@@ -2475,32 +2480,84 @@
       <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2519,7 +2576,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2536,7 +2593,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>id</t>
   </si>
@@ -294,15 +294,21 @@
     <t>mageTowerlv3_</t>
   </si>
   <si>
+    <t>mageTowerShooter</t>
+  </si>
+  <si>
+    <t>mageTowerShooter_</t>
+  </si>
+  <si>
+    <t>idle1</t>
+  </si>
+  <si>
     <t>mageTowerNecroShooter</t>
   </si>
   <si>
     <t>mageTowerNecroShooter_</t>
   </si>
   <si>
-    <t>idle1</t>
-  </si>
-  <si>
     <t>mageTowerMasterShooter</t>
   </si>
   <si>
@@ -310,6 +316,63 @@
   </si>
   <si>
     <t>arrow</t>
+  </si>
+  <si>
+    <t>mageTowerBullet</t>
+  </si>
+  <si>
+    <t>mageTowerlv1Bullet_</t>
+  </si>
+  <si>
+    <t>mageTowerNecroBullet</t>
+  </si>
+  <si>
+    <t>witchtowereffect_</t>
+  </si>
+  <si>
+    <t>mageTowerNecroHitEffect</t>
+  </si>
+  <si>
+    <t>mageTowerMasterBullet</t>
+  </si>
+  <si>
+    <t>magetowereffect_</t>
+  </si>
+  <si>
+    <t>mageTowerMasterHitEffect</t>
+  </si>
+  <si>
+    <t>mageTowerMasterEffect_</t>
+  </si>
+  <si>
+    <t>mageTowerMasterTransferEffect</t>
+  </si>
+  <si>
+    <t>transfereffect_</t>
+  </si>
+  <si>
+    <t>mageTowerMasterTransferEffect1</t>
+  </si>
+  <si>
+    <t>turreBullet</t>
+  </si>
+  <si>
+    <t>turretlv2effect_</t>
+  </si>
+  <si>
+    <t>turretEffect</t>
+  </si>
+  <si>
+    <t>barrackSoliderBullet</t>
+  </si>
+  <si>
+    <t>barrackeffect_</t>
+  </si>
+  <si>
+    <t>lightening</t>
+  </si>
+  <si>
+    <t>lightning_</t>
   </si>
 </sst>
 </file>
@@ -317,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -345,6 +408,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -353,7 +439,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,7 +485,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,14 +508,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,45 +537,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -496,13 +559,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +697,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,145 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +762,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -725,10 +779,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -760,27 +812,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,139 +864,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,1275 +1355,1626 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="24.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>19</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>8</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>19</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>28</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>29</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>35</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>36</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>40</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>41</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>49</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>6</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>7</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>33</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>34</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>62</v>
       </c>
-      <c r="G15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>63</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>69</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>6</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>10</v>
       </c>
-      <c r="G19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>6</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>10</v>
       </c>
-      <c r="G22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>10</v>
       </c>
-      <c r="G25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>4</v>
       </c>
-      <c r="G31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <v>2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>6</v>
       </c>
-      <c r="G33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <v>2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>6</v>
       </c>
-      <c r="G35" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>2</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>6</v>
       </c>
-      <c r="G37" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3">
+        <v>22</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F43" s="3">
         <v>2</v>
       </c>
-      <c r="G39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="G43" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16</v>
+      </c>
+      <c r="F45" s="3">
+        <v>28</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29</v>
+      </c>
+      <c r="F46" s="3">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="3">
+        <v>32</v>
+      </c>
+      <c r="F47" s="3">
+        <v>34</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3">
         <v>3</v>
       </c>
-      <c r="F40" s="2">
-        <v>15</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="F50" s="3">
+        <v>4</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>6</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
         <v>16</v>
       </c>
-      <c r="F41" s="2">
-        <v>28</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="2">
-        <v>29</v>
-      </c>
-      <c r="F42" s="2">
-        <v>31</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="2">
-        <v>32</v>
-      </c>
-      <c r="F43" s="2">
-        <v>34</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="G57" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="1">
         <v>4</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="2">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="F61" s="1">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="17460" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -391,6 +391,81 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +477,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,58 +515,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -476,47 +522,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,14 +537,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -553,187 +553,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,32 +747,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,11 +780,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,6 +802,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,11 +830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,137 +864,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,9 +1002,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,6 +1346,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1357,17 +1355,17 @@
   <sheetPr/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="24.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.225" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1425,1329 +1423,1327 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>19</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>19</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>9</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>18</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>19</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>28</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>29</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>35</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>40</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>41</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>49</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>15</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>33</v>
       </c>
-      <c r="G14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>34</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>62</v>
       </c>
-      <c r="G15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>63</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>69</v>
       </c>
-      <c r="G16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>6</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>6</v>
       </c>
-      <c r="G33" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>6</v>
       </c>
-      <c r="G35" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>6</v>
       </c>
-      <c r="G37" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="G38" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="G38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>3</v>
       </c>
-      <c r="G39" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="G39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="1">
         <v>4</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>12</v>
       </c>
-      <c r="G40" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="G40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>13</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>22</v>
       </c>
-      <c r="G41" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>2</v>
       </c>
-      <c r="G43" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>15</v>
       </c>
-      <c r="G44" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>16</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>28</v>
       </c>
-      <c r="G45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>29</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>31</v>
       </c>
-      <c r="G46" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="G46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>32</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>34</v>
       </c>
-      <c r="G47" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>2</v>
       </c>
-      <c r="G49" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>4</v>
       </c>
-      <c r="G50" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="G50" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>5</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>6</v>
       </c>
-      <c r="G51" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="G51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
         <v>10</v>
       </c>
-      <c r="G53" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2770,7 +2766,7 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2793,7 +2789,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2816,7 +2812,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2839,7 +2835,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2862,7 +2858,7 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2885,7 +2881,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2908,7 +2904,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2931,7 +2927,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2954,7 +2950,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2993,7 +2989,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3010,7 +3006,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17460" windowHeight="6555"/>
+    <workbookView windowWidth="28695" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pixar</author>
+    <author>liyingqi</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -155,12 +156,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liyingqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相对于中心x方向的偏移量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liyingqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+相对于中心y方向的偏移量
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +230,12 @@
   </si>
   <si>
     <t>loop</t>
+  </si>
+  <si>
+    <t>xoffset</t>
+  </si>
+  <si>
+    <t>yoffset</t>
   </si>
   <si>
     <t>int</t>
@@ -380,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -391,6 +443,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,14 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -418,17 +492,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,36 +512,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -485,7 +521,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,22 +536,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,15 +552,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,19 +605,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,163 +665,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,24 +796,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -791,6 +825,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +873,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -852,10 +904,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +916,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1353,13 +1405,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
@@ -1370,7 +1422,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,31 +1447,43 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1427,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>19</v>
@@ -1453,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1479,13 +1543,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>9</v>
@@ -1505,13 +1569,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
         <v>19</v>
@@ -1531,13 +1595,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>29</v>
@@ -1557,13 +1621,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>36</v>
@@ -1583,13 +1647,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>41</v>
@@ -1609,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1635,13 +1699,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1661,13 +1725,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1">
         <v>7</v>
@@ -1687,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
         <v>11</v>
@@ -1713,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>16</v>
@@ -1739,13 +1803,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>34</v>
@@ -1765,13 +1829,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1">
         <v>63</v>
@@ -1791,13 +1855,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1817,13 +1881,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1843,13 +1907,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -1869,13 +1933,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1895,13 +1959,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1921,13 +1985,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
@@ -1947,13 +2011,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1973,13 +2037,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1999,13 +2063,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -2025,13 +2089,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2051,13 +2115,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -2077,13 +2141,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -2103,13 +2167,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2129,13 +2193,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2155,13 +2219,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -2181,13 +2245,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2207,13 +2271,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -2233,13 +2297,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2259,13 +2323,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -2285,13 +2349,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2311,13 +2375,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -2337,13 +2401,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -2363,13 +2427,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -2389,13 +2453,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
         <v>4</v>
@@ -2415,13 +2479,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1">
         <v>13</v>
@@ -2441,13 +2505,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2467,13 +2531,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -2493,13 +2557,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -2519,13 +2583,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1">
         <v>16</v>
@@ -2545,13 +2609,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E46" s="1">
         <v>29</v>
@@ -2571,13 +2635,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E47" s="1">
         <v>32</v>
@@ -2597,13 +2661,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2623,13 +2687,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2649,13 +2713,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -2675,13 +2739,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E51" s="1">
         <v>5</v>
@@ -2701,10 +2765,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2724,10 +2788,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2747,10 +2811,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
@@ -2770,10 +2834,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2793,10 +2857,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2816,10 +2880,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -2839,10 +2903,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2862,10 +2926,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E59" s="1">
         <v>6</v>
@@ -2885,10 +2949,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2903,15 +2967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
@@ -2924,6 +2988,9 @@
       </c>
       <c r="H61" s="1">
         <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2931,10 +2998,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2954,10 +3021,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1">
         <v>4</v>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="6795"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>id</t>
   </si>
@@ -328,6 +328,18 @@
     <t>barrackTowerlv3_</t>
   </si>
   <si>
+    <t>barrackTowerKnight</t>
+  </si>
+  <si>
+    <t>barrackTowerKnight_</t>
+  </si>
+  <si>
+    <t>barrackTowerSavage</t>
+  </si>
+  <si>
+    <t>barrackTowerSavage_</t>
+  </si>
+  <si>
     <t>mageTowerlv1</t>
   </si>
   <si>
@@ -365,6 +377,36 @@
   </si>
   <si>
     <t>mageTowerMasterShooter_</t>
+  </si>
+  <si>
+    <t>artilleryTowerlv1</t>
+  </si>
+  <si>
+    <t>artilleryTowerlv1_</t>
+  </si>
+  <si>
+    <t>artilleryTowerlv2</t>
+  </si>
+  <si>
+    <t>artilleryTowerlv2_</t>
+  </si>
+  <si>
+    <t>artilleryTowerlv3</t>
+  </si>
+  <si>
+    <t>artilleryTowerlv3_</t>
+  </si>
+  <si>
+    <t>artilleryTowerEarthquake</t>
+  </si>
+  <si>
+    <t>artilleryTowerEarthquake_</t>
+  </si>
+  <si>
+    <t>artilleryTowerTesla</t>
+  </si>
+  <si>
+    <t>artilleryTowerTesla_</t>
   </si>
   <si>
     <t>arrow</t>
@@ -432,9 +474,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -447,40 +489,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,8 +509,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,8 +532,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,15 +589,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,41 +617,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,19 +647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +677,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,91 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,13 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,17 +841,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,15 +882,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -853,7 +895,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,30 +938,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,10 +946,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,133 +958,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,26 +1440,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="24.225" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2274,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>41</v>
@@ -2283,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
         <v>0.1</v>
@@ -2326,7 +2367,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>43</v>
@@ -2335,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1">
         <v>0.1</v>
@@ -2410,16 +2451,16 @@
         <v>47</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
         <v>0.1</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2430,22 +2471,22 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1">
         <v>0.1</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2453,19 +2494,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <v>0.1</v>
@@ -2479,19 +2520,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1">
         <v>0.1</v>
@@ -2505,25 +2546,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
         <v>0.1</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2531,25 +2572,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1">
         <v>0.1</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2557,19 +2598,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1">
         <v>0.1</v>
@@ -2583,19 +2624,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1">
         <v>0.1</v>
@@ -2609,19 +2650,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E46" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
         <v>0.1</v>
@@ -2635,19 +2676,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E47" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>0.1</v>
@@ -2661,19 +2702,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1">
         <v>0.1</v>
@@ -2687,19 +2728,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G49" s="1">
         <v>0.1</v>
@@ -2713,19 +2754,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G50" s="1">
         <v>0.1</v>
@@ -2739,19 +2780,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E51" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F51" s="1">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G51" s="1">
         <v>0.1</v>
@@ -2765,16 +2806,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
         <v>0.1</v>
@@ -2788,16 +2832,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
         <v>0.1</v>
@@ -2811,16 +2858,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E54" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1">
         <v>0.1</v>
@@ -2834,16 +2884,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1">
         <v>0.1</v>
@@ -2857,22 +2910,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>0.1</v>
       </c>
       <c r="H56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2880,16 +2936,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G57" s="1">
         <v>0.1</v>
@@ -2903,16 +2962,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <v>0.1</v>
@@ -2926,16 +2988,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="1">
         <v>0.1</v>
@@ -2949,10 +3014,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2967,30 +3035,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E61" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G61" s="1">
         <v>0.1</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2998,10 +3066,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3021,21 +3092,381 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>27</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="1">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1">
+        <v>37</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>33</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="1">
+      <c r="D70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
         <v>4</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>12</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
         <v>13</v>
       </c>
-      <c r="G63" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H63" s="1">
+      <c r="G78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H78" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3056,7 +3487,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3073,7 +3504,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>id</t>
   </si>
@@ -467,6 +467,42 @@
   </si>
   <si>
     <t>lightning_</t>
+  </si>
+  <si>
+    <t>arrowTowerBase</t>
+  </si>
+  <si>
+    <t>ArtilleryTowerBase</t>
+  </si>
+  <si>
+    <t>barrackTowerBase</t>
+  </si>
+  <si>
+    <t>mageTowerBase</t>
+  </si>
+  <si>
+    <t>towerUpgradeEffect</t>
+  </si>
+  <si>
+    <t>towerUpgradeEffect_</t>
+  </si>
+  <si>
+    <t>fireRain</t>
+  </si>
+  <si>
+    <t>fireRain_</t>
+  </si>
+  <si>
+    <t>fireRainSelect</t>
+  </si>
+  <si>
+    <t>fireRainSelect_</t>
+  </si>
+  <si>
+    <t>lightenSelect</t>
+  </si>
+  <si>
+    <t>lightenSelect_</t>
   </si>
 </sst>
 </file>
@@ -474,10 +510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -485,6 +521,59 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,47 +591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,14 +601,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -572,22 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -595,10 +622,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,23 +654,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,7 +683,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,13 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,49 +839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,103 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,23 +880,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,26 +906,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,8 +928,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +963,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -946,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,133 +994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,12 +1480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3470,6 +3506,190 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>39</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3479,7 +3699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3496,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -511,9 +511,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -525,7 +525,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,6 +562,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -548,59 +577,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -615,8 +607,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,30 +648,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +683,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,31 +755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,25 +779,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,91 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,20 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,41 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,6 +933,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -982,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,133 +994,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,25 +1476,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82:H82"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1583,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -1609,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1635,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1661,7 +1662,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1687,7 +1688,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1713,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1739,7 +1740,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1765,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -1791,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -1817,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1843,7 +1844,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1869,7 +1870,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1895,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="G15" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1921,7 +1922,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1947,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1973,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1999,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2025,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2051,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2077,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2103,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -2129,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2155,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2181,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2207,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2233,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2259,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2285,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2311,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2337,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2363,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2389,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2415,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2441,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2467,7 +2468,7 @@
         <v>6</v>
       </c>
       <c r="G37" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2493,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2519,7 +2520,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2545,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2571,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2597,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -2623,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -2649,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2675,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2701,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2727,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2753,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2779,7 +2780,7 @@
         <v>28</v>
       </c>
       <c r="G49" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2805,7 +2806,7 @@
         <v>31</v>
       </c>
       <c r="G50" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -2831,7 +2832,7 @@
         <v>34</v>
       </c>
       <c r="G51" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2857,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2883,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2909,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -2935,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="G55" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2961,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -2987,7 +2988,7 @@
         <v>19</v>
       </c>
       <c r="G57" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -3013,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3039,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3065,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -3091,7 +3092,7 @@
         <v>17</v>
       </c>
       <c r="G61" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -3117,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -3143,7 +3144,7 @@
         <v>27</v>
       </c>
       <c r="G63" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3169,7 +3170,7 @@
         <v>37</v>
       </c>
       <c r="G64" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3195,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3221,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="G66" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -3244,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3267,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="G68" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3290,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3313,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3336,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -3359,7 +3360,7 @@
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3382,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="G73" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3405,7 +3406,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3428,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -3451,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="G76" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
@@ -3477,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3500,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="G78" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -3523,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H79" s="1">
         <v>1</v>
@@ -3546,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H80" s="1">
         <v>1</v>
@@ -3569,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H81" s="1">
         <v>1</v>
@@ -3592,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H82" s="1">
         <v>1</v>
@@ -3615,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -3638,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -3661,7 +3662,7 @@
         <v>39</v>
       </c>
       <c r="G85" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
@@ -3684,7 +3685,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
@@ -3699,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3707,7 +3708,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3716,7 +3717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3724,7 +3725,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>id</t>
   </si>
@@ -307,6 +307,24 @@
     <t>arrowTowerlv3Shooter_</t>
   </si>
   <si>
+    <t>arrowCossbowTowerShooter</t>
+  </si>
+  <si>
+    <t>arrowCossbowTowerShooter_</t>
+  </si>
+  <si>
+    <t>arrowTurretTowerShooter</t>
+  </si>
+  <si>
+    <t>arrowTurretTowerShooter_</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
     <t>barrackTowerlv1</t>
   </si>
   <si>
@@ -356,6 +374,18 @@
   </si>
   <si>
     <t>mageTowerlv3_</t>
+  </si>
+  <si>
+    <t>mageTowerNecromancer</t>
+  </si>
+  <si>
+    <t>mageTowerMaster_</t>
+  </si>
+  <si>
+    <t>mageTowerMaster</t>
+  </si>
+  <si>
+    <t>mageTowerNecromancer_</t>
   </si>
   <si>
     <t>mageTowerShooter</t>
@@ -510,9 +540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -525,6 +555,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -532,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,15 +628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,40 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,32 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +713,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,25 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +785,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,43 +821,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,85 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,41 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,18 +933,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,11 +989,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,26 +1506,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G86"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -2196,16 +2225,16 @@
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1">
         <v>0.05</v>
@@ -2219,19 +2248,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <v>0.05</v>
@@ -2245,19 +2274,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>0.05</v>
@@ -2271,19 +2300,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1">
         <v>0.05</v>
@@ -2297,19 +2326,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <v>0.05</v>
@@ -2323,19 +2352,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1">
         <v>14</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
       </c>
       <c r="G32" s="1">
         <v>0.05</v>
@@ -2349,19 +2378,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G33" s="1">
         <v>0.05</v>
@@ -2375,19 +2404,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="G34" s="1">
         <v>0.05</v>
@@ -2401,19 +2430,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1">
         <v>0.05</v>
@@ -2427,13 +2456,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2453,19 +2482,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
         <v>0.05</v>
@@ -2479,13 +2508,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2505,19 +2534,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1">
         <v>0.05</v>
@@ -2531,13 +2560,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2557,19 +2586,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1">
         <v>0.05</v>
@@ -2583,25 +2612,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>0.05</v>
       </c>
       <c r="H42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2609,25 +2638,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1">
         <v>0.05</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2635,19 +2664,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
         <v>0.05</v>
@@ -2661,19 +2690,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
         <v>0.05</v>
@@ -2682,18 +2711,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2707,31 +2736,37 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G47" s="1">
         <v>0.05</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2739,19 +2774,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
         <v>0.05</v>
@@ -2765,19 +2800,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E49" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G49" s="1">
         <v>0.05</v>
@@ -2791,19 +2826,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
         <v>0.05</v>
@@ -2817,19 +2852,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G51" s="1">
         <v>0.05</v>
@@ -2843,13 +2878,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2861,7 +2896,7 @@
         <v>0.05</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2869,19 +2904,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1">
         <v>0.05</v>
@@ -2895,19 +2930,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G54" s="1">
         <v>0.05</v>
@@ -2921,19 +2956,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
         <v>0.05</v>
@@ -2947,25 +2982,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G56" s="1">
         <v>0.05</v>
       </c>
       <c r="H56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2973,25 +3008,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
         <v>0.05</v>
       </c>
       <c r="H57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2999,25 +3034,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
         <v>0.05</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3025,19 +3060,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1">
         <v>0.05</v>
@@ -3051,19 +3086,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G60" s="1">
         <v>0.05</v>
@@ -3077,19 +3112,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>0.05</v>
@@ -3106,16 +3141,16 @@
         <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
         <v>0.05</v>
@@ -3138,10 +3173,10 @@
         <v>64</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G63" s="1">
         <v>0.05</v>
@@ -3158,16 +3193,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E64" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F64" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G64" s="1">
         <v>0.05</v>
@@ -3181,19 +3216,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G65" s="1">
         <v>0.05</v>
@@ -3207,19 +3242,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" s="1">
         <v>0.05</v>
@@ -3233,16 +3268,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
         <v>0.05</v>
@@ -3256,16 +3294,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <v>0.05</v>
@@ -3279,16 +3320,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E69" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G69" s="1">
         <v>0.05</v>
@@ -3302,16 +3346,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G70" s="1">
         <v>0.05</v>
@@ -3325,22 +3372,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
         <v>0.05</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3348,16 +3398,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G72" s="1">
         <v>0.05</v>
@@ -3371,16 +3424,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
         <v>0.05</v>
@@ -3394,16 +3450,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E74" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F74" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="1">
         <v>0.05</v>
@@ -3417,10 +3476,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -3435,30 +3497,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E76" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G76" s="1">
         <v>0.05</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3466,10 +3528,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -3489,16 +3554,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E78" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G78" s="1">
         <v>0.05</v>
@@ -3512,22 +3580,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G79" s="1">
         <v>0.05</v>
       </c>
       <c r="H79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3535,22 +3606,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="1">
         <v>0.05</v>
       </c>
       <c r="H80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3558,22 +3632,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G81" s="1">
         <v>0.05</v>
       </c>
       <c r="H81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3581,10 +3658,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3596,7 +3673,7 @@
         <v>0.05</v>
       </c>
       <c r="H82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3604,16 +3681,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" s="1">
         <v>0.05</v>
@@ -3627,16 +3704,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="1">
         <v>0.05</v>
@@ -3650,22 +3727,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G85" s="1">
         <v>0.05</v>
       </c>
       <c r="H85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3673,21 +3750,369 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>16</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>10</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" s="1">
+        <v>4</v>
+      </c>
+      <c r="F93" s="1">
+        <v>13</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="1">
-        <v>1</v>
-      </c>
-      <c r="F86" s="1">
+      <c r="D95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>11</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>10</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>39</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
         <v>3</v>
       </c>
-      <c r="G86" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H86" s="1">
+      <c r="G101" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3700,7 +4125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3708,7 +4133,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3717,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3725,7 +4150,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>id</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>skill1</t>
+  </si>
+  <si>
+    <t>arrowTowerlv1</t>
+  </si>
+  <si>
+    <t>arrowTowerlv2</t>
+  </si>
+  <si>
+    <t>arrowTowerlv3</t>
+  </si>
+  <si>
+    <t>arrowCossbowTower</t>
+  </si>
+  <si>
+    <t>arrowTurretTower</t>
   </si>
   <si>
     <t>arrowTowerlv1Shooter</t>
@@ -540,9 +555,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -554,8 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,22 +585,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -592,18 +592,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,15 +622,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +668,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,38 +706,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,19 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +764,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,31 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,85 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,15 +919,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -931,13 +937,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,17 +967,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,18 +1011,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,133 +1039,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,25 +1521,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1957,24 +1973,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>0.05</v>
@@ -1982,25 +1995,25 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0.05</v>
@@ -2008,25 +2021,25 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>0.05</v>
@@ -2034,25 +2047,25 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>0.05</v>
@@ -2060,31 +2073,34 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0.05</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2092,19 +2108,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>0.05</v>
@@ -2118,19 +2134,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
         <v>0.05</v>
@@ -2144,19 +2160,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <v>0.05</v>
@@ -2170,19 +2186,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>0.05</v>
@@ -2196,19 +2212,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1">
         <v>0.05</v>
@@ -2222,19 +2238,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <v>0.05</v>
@@ -2248,19 +2264,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1">
         <v>0.05</v>
@@ -2274,19 +2290,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1">
         <v>0.05</v>
@@ -2300,19 +2316,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>0.05</v>
@@ -2326,19 +2342,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>0.05</v>
@@ -2352,19 +2368,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G32" s="1">
         <v>0.05</v>
@@ -2378,19 +2394,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
         <v>0.05</v>
@@ -2404,19 +2420,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <v>0.05</v>
@@ -2430,19 +2446,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G35" s="1">
         <v>0.05</v>
@@ -2456,19 +2472,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
         <v>0.05</v>
@@ -2482,19 +2498,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1">
         <v>0.05</v>
@@ -2508,19 +2524,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G38" s="1">
         <v>0.05</v>
@@ -2534,19 +2550,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="G39" s="1">
         <v>0.05</v>
@@ -2560,19 +2576,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G40" s="1">
         <v>0.05</v>
@@ -2589,16 +2605,16 @@
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
         <v>0.05</v>
@@ -2612,19 +2628,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1">
         <v>0.05</v>
@@ -2638,19 +2654,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
         <v>0.05</v>
@@ -2664,19 +2680,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1">
         <v>0.05</v>
@@ -2690,19 +2706,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
         <v>0.05</v>
@@ -2711,24 +2727,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
         <v>0.05</v>
@@ -2736,37 +2752,31 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="J46" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
         <v>0.05</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2774,19 +2784,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="1">
         <v>0.05</v>
@@ -2800,19 +2810,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1">
         <v>0.05</v>
@@ -2826,19 +2836,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" s="1">
         <v>0.05</v>
@@ -2847,24 +2857,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <v>0.05</v>
@@ -2872,31 +2882,37 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="J51" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G52" s="1">
         <v>0.05</v>
       </c>
       <c r="H52" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2904,19 +2920,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E53" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
         <v>0.05</v>
@@ -2930,19 +2946,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G54" s="1">
         <v>0.05</v>
@@ -2956,13 +2972,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2982,19 +2998,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G56" s="1">
         <v>0.05</v>
@@ -3008,19 +3024,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>0.05</v>
@@ -3034,25 +3050,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E58" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1">
         <v>0.05</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3060,19 +3076,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G59" s="1">
         <v>0.05</v>
@@ -3086,19 +3102,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E60" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
         <v>0.05</v>
@@ -3115,16 +3131,16 @@
         <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1">
         <v>0.05</v>
@@ -3138,13 +3154,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -3156,7 +3172,7 @@
         <v>0.05</v>
       </c>
       <c r="H62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3164,25 +3180,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
       </c>
       <c r="F63" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1">
         <v>0.05</v>
       </c>
       <c r="H63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3190,19 +3206,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G64" s="1">
         <v>0.05</v>
@@ -3216,19 +3232,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E65" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G65" s="1">
         <v>0.05</v>
@@ -3242,19 +3258,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E66" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
         <v>0.05</v>
@@ -3268,19 +3284,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" s="1">
         <v>0.05</v>
@@ -3294,19 +3310,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1">
         <v>0.05</v>
@@ -3320,19 +3336,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E69" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F69" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G69" s="1">
         <v>0.05</v>
@@ -3346,19 +3362,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E70" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F70" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G70" s="1">
         <v>0.05</v>
@@ -3372,25 +3388,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G71" s="1">
         <v>0.05</v>
       </c>
       <c r="H71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3398,19 +3414,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1">
         <v>0.05</v>
@@ -3424,19 +3440,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="1">
         <v>0.05</v>
@@ -3450,19 +3466,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1">
         <v>0.05</v>
@@ -3476,19 +3492,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G75" s="1">
         <v>0.05</v>
@@ -3502,25 +3518,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <v>0.05</v>
       </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3528,19 +3544,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G77" s="1">
         <v>0.05</v>
@@ -3554,19 +3570,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1">
         <v>0.05</v>
@@ -3580,19 +3596,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E79" s="1">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F79" s="1">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G79" s="1">
         <v>0.05</v>
@@ -3606,13 +3622,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -3632,19 +3648,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E81" s="1">
         <v>2</v>
       </c>
       <c r="F81" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G81" s="1">
         <v>0.05</v>
@@ -3658,16 +3674,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="1">
         <v>0.05</v>
@@ -3683,14 +3702,17 @@
       <c r="B83" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C83" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G83" s="1">
         <v>0.05</v>
@@ -3704,16 +3726,19 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E84" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F84" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G84" s="1">
         <v>0.05</v>
@@ -3727,7 +3752,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>81</v>
@@ -3736,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
         <v>0.05</v>
@@ -3750,16 +3778,19 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="1">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G86" s="1">
         <v>0.05</v>
@@ -3773,16 +3804,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G87" s="1">
         <v>0.05</v>
@@ -3796,16 +3827,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G88" s="1">
         <v>0.05</v>
@@ -3819,16 +3850,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E89" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F89" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89" s="1">
         <v>0.05</v>
@@ -3842,16 +3873,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90" s="1">
         <v>0.05</v>
@@ -3860,30 +3891,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E91" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G91" s="1">
         <v>0.05</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
-      </c>
-      <c r="J91" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3891,16 +3919,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G92" s="1">
         <v>0.05</v>
@@ -3914,16 +3942,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E93" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G93" s="1">
         <v>0.05</v>
@@ -3937,22 +3965,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G94" s="1">
         <v>0.05</v>
       </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3960,45 +3988,48 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1">
         <v>0.05</v>
       </c>
       <c r="H95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G96" s="1">
         <v>0.05</v>
       </c>
       <c r="H96" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4006,22 +4037,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="1">
         <v>0.05</v>
       </c>
       <c r="H97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4029,16 +4060,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G98" s="1">
         <v>0.05</v>
@@ -4052,22 +4083,22 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G99" s="1">
         <v>0.05</v>
       </c>
       <c r="H99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4075,16 +4106,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G100" s="1">
         <v>0.05</v>
@@ -4098,21 +4129,136 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>11</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E101" s="1">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1">
+      <c r="D104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>10</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>39</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
         <v>3</v>
       </c>
-      <c r="G101" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H101" s="1">
+      <c r="G106" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H106" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4125,7 +4271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4133,7 +4279,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4142,7 +4288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4150,7 +4296,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>id</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>skill1</t>
+  </si>
+  <si>
+    <t>towerTerrain_1</t>
+  </si>
+  <si>
+    <t>towerTerrain_</t>
   </si>
   <si>
     <t>arrowTowerlv1</t>
@@ -569,9 +575,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,50 +606,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +629,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -658,17 +659,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,32 +696,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,7 +734,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,67 +836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,25 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,37 +878,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,25 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,6 +925,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -937,59 +958,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,11 +986,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,133 +1045,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,26 +1527,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1981,13 +1986,13 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>0.05</v>
@@ -1996,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>26</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2004,10 +2009,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2030,10 +2035,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -2056,10 +2061,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -2082,10 +2087,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2103,30 +2108,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0.05</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2134,19 +2139,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <v>0.05</v>
@@ -2160,19 +2165,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1">
         <v>0.05</v>
@@ -2189,16 +2194,16 @@
         <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
         <v>0.05</v>
@@ -2212,19 +2217,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>0.05</v>
@@ -2238,19 +2243,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1">
         <v>0.05</v>
@@ -2267,16 +2272,16 @@
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
         <v>0.05</v>
@@ -2290,19 +2295,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>0.05</v>
@@ -2316,19 +2321,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1">
         <v>0.05</v>
@@ -2345,16 +2350,16 @@
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <v>0.05</v>
@@ -2368,19 +2373,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <v>0.05</v>
@@ -2394,19 +2399,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G33" s="1">
         <v>0.05</v>
@@ -2423,16 +2428,16 @@
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
         <v>0.05</v>
@@ -2446,19 +2451,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <v>0.05</v>
@@ -2472,19 +2477,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G36" s="1">
         <v>0.05</v>
@@ -2498,19 +2503,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <v>0.05</v>
@@ -2524,19 +2529,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1">
         <v>0.05</v>
@@ -2550,19 +2555,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G39" s="1">
         <v>0.05</v>
@@ -2576,19 +2581,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E40" s="1">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F40" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G40" s="1">
         <v>0.05</v>
@@ -2602,19 +2607,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="G41" s="1">
         <v>0.05</v>
@@ -2628,19 +2633,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>0.05</v>
@@ -2654,19 +2659,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1">
         <v>0.05</v>
@@ -2680,19 +2685,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
         <v>0.05</v>
@@ -2709,16 +2714,16 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
         <v>0.05</v>
@@ -2732,19 +2737,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
         <v>0.05</v>
@@ -2761,16 +2766,16 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
         <v>0.05</v>
@@ -2784,19 +2789,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
         <v>0.05</v>
@@ -2813,16 +2818,16 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1">
         <v>0.05</v>
@@ -2836,19 +2841,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
         <v>0.05</v>
@@ -2857,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2865,25 +2870,22 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1">
         <v>0.05</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2891,19 +2893,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
         <v>0.05</v>
@@ -2915,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2923,16 +2925,16 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G53" s="1">
         <v>0.05</v>
@@ -2940,25 +2942,28 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="J53" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <v>0.05</v>
@@ -2966,8 +2971,11 @@
       <c r="H54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="J54" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2975,16 +2983,16 @@
         <v>59</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1">
         <v>0.05</v>
@@ -2992,25 +3000,28 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="J55" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>0.05</v>
@@ -3018,8 +3029,11 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="J56" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3027,68 +3041,77 @@
         <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G57" s="1">
         <v>0.05</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
         <v>0.05</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-5.2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G59" s="1">
         <v>0.05</v>
@@ -3096,8 +3119,14 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="1">
+        <v>-5.2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3105,16 +3134,16 @@
         <v>63</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1">
         <v>0.05</v>
@@ -3122,25 +3151,31 @@
       <c r="H60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="1">
+        <v>-5.2</v>
+      </c>
+      <c r="J60" s="1">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>0.05</v>
@@ -3148,8 +3183,14 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="J61" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3157,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>66</v>
@@ -3166,13 +3207,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G62" s="1">
         <v>0.05</v>
       </c>
       <c r="H62" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="J62" s="1">
+        <v>30.6</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3180,19 +3227,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
         <v>0.05</v>
@@ -3206,25 +3253,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E64" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1">
         <v>0.05</v>
       </c>
       <c r="H64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3232,19 +3279,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E65" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G65" s="1">
         <v>0.05</v>
@@ -3258,19 +3305,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G66" s="1">
         <v>0.05</v>
@@ -3284,19 +3331,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="1">
         <v>0.05</v>
@@ -3310,19 +3357,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <v>0.05</v>
@@ -3336,19 +3383,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E69" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G69" s="1">
         <v>0.05</v>
@@ -3362,19 +3409,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E70" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F70" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G70" s="1">
         <v>0.05</v>
@@ -3388,19 +3435,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E71" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F71" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71" s="1">
         <v>0.05</v>
@@ -3417,16 +3464,16 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G72" s="1">
         <v>0.05</v>
@@ -3440,19 +3487,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
         <v>0.05</v>
@@ -3466,19 +3513,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74" s="1">
         <v>0.05</v>
@@ -3492,19 +3539,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E75" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1">
         <v>0.05</v>
@@ -3521,51 +3568,54 @@
         <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G76" s="1">
         <v>0.05</v>
       </c>
       <c r="H76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
         <v>0.05</v>
       </c>
       <c r="H77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3573,16 +3623,16 @@
         <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G78" s="1">
         <v>0.05</v>
@@ -3590,25 +3640,28 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="J78" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
         <v>0.05</v>
@@ -3616,8 +3669,11 @@
       <c r="H79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="J79" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3625,16 +3681,16 @@
         <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G80" s="1">
         <v>0.05</v>
@@ -3642,25 +3698,28 @@
       <c r="H80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="J80" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
         <v>0.05</v>
@@ -3668,8 +3727,11 @@
       <c r="H81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="J81" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3677,16 +3739,16 @@
         <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G82" s="1">
         <v>0.05</v>
@@ -3694,25 +3756,28 @@
       <c r="H82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="J82" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1">
         <v>0.05</v>
@@ -3720,34 +3785,46 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="J83" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
         <v>27</v>
       </c>
-      <c r="F84" s="1">
-        <v>37</v>
-      </c>
       <c r="G84" s="1">
         <v>0.05</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="J84" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3755,16 +3832,16 @@
         <v>80</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F85" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G85" s="1">
         <v>0.05</v>
@@ -3772,25 +3849,31 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="J85" s="1">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1">
         <v>0.05</v>
@@ -3798,28 +3881,43 @@
       <c r="H86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="J86" s="1">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C87" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D87" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G87" s="1">
         <v>0.05</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="J87" s="1">
+        <v>32.9</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3827,16 +3925,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
         <v>0.05</v>
@@ -3856,10 +3954,10 @@
         <v>86</v>
       </c>
       <c r="E89" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F89" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="1">
         <v>0.05</v>
@@ -3876,13 +3974,13 @@
         <v>87</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G90" s="1">
         <v>0.05</v>
@@ -3896,16 +3994,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G91" s="1">
         <v>0.05</v>
@@ -3928,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G92" s="1">
         <v>0.05</v>
@@ -3951,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G93" s="1">
         <v>0.05</v>
@@ -3968,13 +4066,13 @@
         <v>94</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E94" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G94" s="1">
         <v>0.05</v>
@@ -3988,16 +4086,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F95" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G95" s="1">
         <v>0.05</v>
@@ -4006,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4014,13 +4112,13 @@
         <v>97</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E96" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G96" s="1">
         <v>0.05</v>
@@ -4028,31 +4126,31 @@
       <c r="H96" s="1">
         <v>0</v>
       </c>
-      <c r="J96" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E97" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G97" s="1">
         <v>0.05</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4066,10 +4164,10 @@
         <v>101</v>
       </c>
       <c r="E98" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1">
         <v>0.05</v>
@@ -4086,19 +4184,19 @@
         <v>102</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G99" s="1">
         <v>0.05</v>
       </c>
       <c r="H99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4106,10 +4204,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -4129,10 +4227,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -4152,10 +4250,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -4175,22 +4273,22 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G103" s="1">
         <v>0.05</v>
       </c>
       <c r="H103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4207,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G104" s="1">
         <v>0.05</v>
@@ -4230,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="F105" s="1">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
         <v>0.05</v>
       </c>
       <c r="H105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4253,12 +4351,35 @@
         <v>1</v>
       </c>
       <c r="F106" s="1">
+        <v>39</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
         <v>3</v>
       </c>
-      <c r="G106" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H106" s="1">
+      <c r="G107" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H107" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4271,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4279,7 +4400,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4288,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4296,7 +4417,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -561,9 +561,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -576,22 +576,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +592,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,23 +626,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -660,14 +659,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,6 +680,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -695,11 +688,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,13 +734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,13 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,19 +788,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,13 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,37 +884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,37 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +925,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -943,17 +958,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,21 +974,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,17 +1005,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,133 +1045,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,8 +1535,8 @@
   <sheetPr/>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1614,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1639,8 +1639,11 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1665,8 +1668,11 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1691,8 +1697,11 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1717,8 +1726,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1743,8 +1755,11 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1769,8 +1784,11 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1795,8 +1813,11 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1821,8 +1842,11 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1847,8 +1871,11 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1873,8 +1900,11 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1899,8 +1929,11 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1925,8 +1958,11 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1951,8 +1987,11 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1976,6 +2015,9 @@
       </c>
       <c r="H16" s="1">
         <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2628,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2653,8 +2695,11 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="J42" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2679,8 +2724,11 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2705,8 +2753,11 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="J44" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2731,8 +2782,11 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="J45" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2757,8 +2811,11 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="J46" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2783,8 +2840,11 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="J47" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2809,8 +2869,11 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="J48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2835,8 +2898,11 @@
       <c r="H49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="J49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2861,8 +2927,11 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="J50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2886,6 +2955,9 @@
       </c>
       <c r="H51" s="1">
         <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4199,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:10">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4221,8 +4293,11 @@
       <c r="H100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="J100" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4244,8 +4319,11 @@
       <c r="H101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="J101" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4267,8 +4345,11 @@
       <c r="H102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="J102" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4289,6 +4370,9 @@
       </c>
       <c r="H103" s="1">
         <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>10.5</v>
       </c>
     </row>
     <row r="104" spans="1:8">

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>id</t>
   </si>
@@ -469,6 +469,15 @@
     <t>mageTowerlv1Bullet_</t>
   </si>
   <si>
+    <t>mageTowerNormalBullet</t>
+  </si>
+  <si>
+    <t>mageTowerNormalBullet_</t>
+  </si>
+  <si>
+    <t>mageTowerNormalHitEffect</t>
+  </si>
+  <si>
     <t>mageTowerNecroBullet</t>
   </si>
   <si>
@@ -478,6 +487,15 @@
     <t>mageTowerNecroHitEffect</t>
   </si>
   <si>
+    <t>necromancerBullet</t>
+  </si>
+  <si>
+    <t>necromancerBullet_</t>
+  </si>
+  <si>
+    <t>necromancerHitEffect</t>
+  </si>
+  <si>
     <t>mageTowerMasterBullet</t>
   </si>
   <si>
@@ -488,6 +506,15 @@
   </si>
   <si>
     <t>mageTowerMasterEffect_</t>
+  </si>
+  <si>
+    <t>mageTowerMasterBullet1</t>
+  </si>
+  <si>
+    <t>mageTowerMasterBullet_</t>
+  </si>
+  <si>
+    <t>mageTowerMasterHitEffect1</t>
   </si>
   <si>
     <t>mageTowerMasterTransferEffect</t>
@@ -561,90 +588,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -665,6 +617,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -682,9 +718,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,23 +733,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +761,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,79 +845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,13 +881,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,36 +945,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -928,16 +955,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -958,22 +985,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,6 +1026,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1011,17 +1044,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,133 +1072,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,10 +1560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4026,16 +4053,16 @@
         <v>86</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G89" s="1">
         <v>0.05</v>
       </c>
       <c r="H89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4049,16 +4076,16 @@
         <v>88</v>
       </c>
       <c r="E90" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G90" s="1">
         <v>0.05</v>
       </c>
       <c r="H90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4072,10 +4099,10 @@
         <v>88</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G91" s="1">
         <v>0.05</v>
@@ -4095,10 +4122,10 @@
         <v>91</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" s="1">
         <v>0.05</v>
@@ -4115,13 +4142,13 @@
         <v>92</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G93" s="1">
         <v>0.05</v>
@@ -4135,22 +4162,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1">
         <v>0.05</v>
       </c>
       <c r="H94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4158,16 +4185,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
         <v>6</v>
-      </c>
-      <c r="F95" s="1">
-        <v>10</v>
       </c>
       <c r="G95" s="1">
         <v>0.05</v>
@@ -4181,16 +4208,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G96" s="1">
         <v>0.05</v>
@@ -4199,30 +4226,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E97" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G97" s="1">
         <v>0.05</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4239,13 +4263,13 @@
         <v>1</v>
       </c>
       <c r="F98" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1">
         <v>0.05</v>
       </c>
       <c r="H98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4256,13 +4280,13 @@
         <v>102</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E99" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F99" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G99" s="1">
         <v>0.05</v>
@@ -4271,33 +4295,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G100" s="1">
         <v>0.05</v>
       </c>
       <c r="H100" s="1">
-        <v>1</v>
-      </c>
-      <c r="J100" s="1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4305,25 +4326,22 @@
         <v>105</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G101" s="1">
         <v>0.05</v>
       </c>
       <c r="H101" s="1">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4331,22 +4349,19 @@
         <v>106</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="1">
         <v>0.05</v>
       </c>
       <c r="H102" s="1">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4354,25 +4369,25 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1">
         <v>0.05</v>
       </c>
       <c r="H103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="1">
-        <v>10.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4380,16 +4395,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
       </c>
       <c r="F104" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G104" s="1">
         <v>0.05</v>
@@ -4403,16 +4418,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E105" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G105" s="1">
         <v>0.05</v>
@@ -4421,21 +4436,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:10">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G106" s="1">
         <v>0.05</v>
@@ -4443,8 +4458,11 @@
       <c r="H106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="J106" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4452,18 +4470,165 @@
         <v>114</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1">
+      <c r="D108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>11</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>10</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>39</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
         <v>3</v>
       </c>
-      <c r="G107" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H107" s="1">
+      <c r="G113" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H113" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="15255" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -602,23 +602,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,10 +640,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,32 +663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,25 +687,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,14 +731,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -761,19 +761,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,49 +809,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,25 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,61 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,17 +970,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,15 +990,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,6 +1029,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1060,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,133 +1072,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,25 +1554,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:A113"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -4085,7 +4086,7 @@
         <v>0.05</v>
       </c>
       <c r="H90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4641,7 +4642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4649,7 +4650,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4658,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4666,7 +4667,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="7320"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -589,9 +589,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -602,62 +602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,23 +617,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -702,9 +632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,7 +669,78 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,13 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,85 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,13 +839,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,19 +917,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,80 +952,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1052,6 +978,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1060,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,133 +1072,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,26 +1554,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1668,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1697,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1726,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1755,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1784,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1813,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1842,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3909,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="F84" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1">
         <v>0.05</v>
@@ -4388,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="1">
-        <v>20</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4642,7 +4641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4650,7 +4649,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4659,7 +4658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4667,7 +4666,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Data/Excel/AnimData.xlsx
+++ b/Data/Excel/AnimData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="AnimData" sheetId="1" r:id="rId1"/>
@@ -588,15 +588,67 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -618,90 +670,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,6 +699,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -738,9 +723,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +797,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,13 +893,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,25 +917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,85 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,35 +973,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1019,6 +990,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,6 +1032,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1060,10 +1060,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,133 +1072,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,16 +1563,16 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J8"/>
+      <selection activeCell="J3" sqref="J3:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.225" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4649,7 +4649,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4666,7 +4666,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
